--- a/ironhack/code_clone/OutWit_green4.xlsx
+++ b/ironhack/code_clone/OutWit_green4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1" showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/Programming/PythonPractice/ironhack/code_clone/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection1!$F$1:$K$50</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -498,7 +498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -561,7 +561,7 @@
         <v>29</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:K50" si="0">(2*G2*I2)/(100*G2+100*I2+2*G2*I2)</f>
+        <f t="shared" ref="J2:J50" si="0">(2*G2*I2)/(100*G2+100*I2+2*G2*I2)</f>
         <v>0.1693679092382496</v>
       </c>
       <c r="K2">
@@ -886,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:D44" si="1">A14</f>
+        <f t="shared" ref="C13:D13" si="1">A14</f>
         <v>meetalivaidya</v>
       </c>
       <c r="D13" t="str">
@@ -948,7 +948,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:D46" si="2">A16</f>
+        <f t="shared" ref="C15:D15" si="2">A16</f>
         <v>huayifang</v>
       </c>
       <c r="D15" t="str">
@@ -1010,7 +1010,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:D48" si="3">A18</f>
+        <f t="shared" ref="C17:D17" si="3">A18</f>
         <v>meetalivaidya</v>
       </c>
       <c r="D17" t="str">
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:D50" si="4">A20</f>
+        <f t="shared" ref="C19:D19" si="4">A20</f>
         <v>meetalivaidya</v>
       </c>
       <c r="D19" t="str">
@@ -1134,7 +1134,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:D52" si="5">A22</f>
+        <f t="shared" ref="C21:D21" si="5">A22</f>
         <v>taycurt17</v>
       </c>
       <c r="D21" t="str">
@@ -1196,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23:D54" si="6">A24</f>
+        <f t="shared" ref="C23:D23" si="6">A24</f>
         <v>patrickherrod</v>
       </c>
       <c r="D23" t="str">
@@ -1258,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:D56" si="7">A26</f>
+        <f t="shared" ref="C25:D25" si="7">A26</f>
         <v>abelal16</v>
       </c>
       <c r="D25" t="str">
@@ -1320,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:D58" si="8">A28</f>
+        <f t="shared" ref="C27:D27" si="8">A28</f>
         <v>taycurt17</v>
       </c>
       <c r="D27" t="str">
@@ -1382,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:D60" si="9">A30</f>
+        <f t="shared" ref="C29:D29" si="9">A30</f>
         <v>shiboo18</v>
       </c>
       <c r="D29" t="str">
@@ -1444,7 +1444,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:D62" si="10">A32</f>
+        <f t="shared" ref="C31:D31" si="10">A32</f>
         <v>taycurt17</v>
       </c>
       <c r="D31" t="str">
@@ -1506,7 +1506,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:D64" si="11">A34</f>
+        <f t="shared" ref="C33:D33" si="11">A34</f>
         <v>patrickherrod</v>
       </c>
       <c r="D33" t="str">
@@ -1568,7 +1568,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:D66" si="12">A36</f>
+        <f t="shared" ref="C35:D35" si="12">A36</f>
         <v>pmittal115</v>
       </c>
       <c r="D35" t="str">
@@ -1630,7 +1630,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:D68" si="13">A38</f>
+        <f t="shared" ref="C37:D37" si="13">A38</f>
         <v>prachitamane</v>
       </c>
       <c r="D37" t="str">
@@ -1692,7 +1692,7 @@
         <v>31</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:D70" si="14">A40</f>
+        <f t="shared" ref="C39:D39" si="14">A40</f>
         <v>sauravn</v>
       </c>
       <c r="D39" t="str">
@@ -1754,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ref="C41:D72" si="15">A42</f>
+        <f t="shared" ref="C41:D41" si="15">A42</f>
         <v>sauravn</v>
       </c>
       <c r="D41" t="str">
@@ -1816,7 +1816,7 @@
         <v>36</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ref="C43:D74" si="16">A44</f>
+        <f t="shared" ref="C43:D43" si="16">A44</f>
         <v>taycurt17</v>
       </c>
       <c r="D43" t="str">
@@ -1878,7 +1878,7 @@
         <v>31</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:D76" si="17">A46</f>
+        <f t="shared" ref="C45:D45" si="17">A46</f>
         <v>taycurt17</v>
       </c>
       <c r="D45" t="str">
@@ -1940,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:D78" si="18">A48</f>
+        <f t="shared" ref="C47:D47" si="18">A48</f>
         <v>pjt90</v>
       </c>
       <c r="D47" t="str">
@@ -2002,7 +2002,7 @@
         <v>36</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ref="C49:D80" si="19">A50</f>
+        <f t="shared" ref="C49:D49" si="19">A50</f>
         <v>pjt90</v>
       </c>
       <c r="D49" t="str">
@@ -2064,7 +2064,7 @@
         <v>35</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ref="C51:D82" si="20">A52</f>
+        <f t="shared" ref="C51:D51" si="20">A52</f>
         <v>pjt90</v>
       </c>
       <c r="D51" t="str">
@@ -2088,7 +2088,7 @@
         <v>35</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ref="C53:D100" si="21">A54</f>
+        <f t="shared" ref="C53:D53" si="21">A54</f>
         <v>pmittal115</v>
       </c>
       <c r="D53" t="str">
@@ -2112,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ref="C55:D100" si="22">A56</f>
+        <f t="shared" ref="C55:D55" si="22">A56</f>
         <v>taycurt17</v>
       </c>
       <c r="D55" t="str">
@@ -2136,7 +2136,7 @@
         <v>28</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ref="C57:D100" si="23">A58</f>
+        <f t="shared" ref="C57:D57" si="23">A58</f>
         <v>taycurt17</v>
       </c>
       <c r="D57" t="str">
@@ -2160,7 +2160,7 @@
         <v>40</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ref="C59:D100" si="24">A60</f>
+        <f t="shared" ref="C59:D59" si="24">A60</f>
         <v>tanmayee123</v>
       </c>
       <c r="D59" t="str">
@@ -2184,7 +2184,7 @@
         <v>35</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ref="C61:D100" si="25">A62</f>
+        <f t="shared" ref="C61:D61" si="25">A62</f>
         <v>pmittal115</v>
       </c>
       <c r="D61" t="str">
@@ -2208,7 +2208,7 @@
         <v>24</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ref="C63:D100" si="26">A64</f>
+        <f t="shared" ref="C63:D63" si="26">A64</f>
         <v>taycurt17</v>
       </c>
       <c r="D63" t="str">
@@ -2232,7 +2232,7 @@
         <v>41</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ref="C65:D100" si="27">A66</f>
+        <f t="shared" ref="C65:D65" si="27">A66</f>
         <v>patrickherrod</v>
       </c>
       <c r="D65" t="str">
@@ -2256,7 +2256,7 @@
         <v>17</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:D100" si="28">A68</f>
+        <f t="shared" ref="C67:D67" si="28">A68</f>
         <v>sauravn</v>
       </c>
       <c r="D67" t="str">
@@ -2280,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" ref="C69:D100" si="29">A70</f>
+        <f t="shared" ref="C69:D69" si="29">A70</f>
         <v>patrickherrod</v>
       </c>
       <c r="D69" t="str">
@@ -2304,7 +2304,7 @@
         <v>28</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71:D100" si="30">A72</f>
+        <f t="shared" ref="C71:D71" si="30">A72</f>
         <v>tanmayee123</v>
       </c>
       <c r="D71" t="str">
@@ -2328,7 +2328,7 @@
         <v>40</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:D100" si="31">A74</f>
+        <f t="shared" ref="C73:D73" si="31">A74</f>
         <v>pmittal115</v>
       </c>
       <c r="D73" t="str">
@@ -2352,7 +2352,7 @@
         <v>40</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ref="C75:D100" si="32">A76</f>
+        <f t="shared" ref="C75:D75" si="32">A76</f>
         <v>crloflin</v>
       </c>
       <c r="D75" t="str">
@@ -2376,7 +2376,7 @@
         <v>40</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77:D100" si="33">A78</f>
+        <f t="shared" ref="C77:D77" si="33">A78</f>
         <v>tanmayee123</v>
       </c>
       <c r="D77" t="str">
@@ -2400,7 +2400,7 @@
         <v>40</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ref="C79:D100" si="34">A80</f>
+        <f t="shared" ref="C79:D79" si="34">A80</f>
         <v>shiboo18</v>
       </c>
       <c r="D79" t="str">
@@ -2424,7 +2424,7 @@
         <v>34</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ref="C81:D100" si="35">A82</f>
+        <f t="shared" ref="C81:D81" si="35">A82</f>
         <v>patrickherrod</v>
       </c>
       <c r="D81" t="str">
@@ -2448,7 +2448,7 @@
         <v>31</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ref="C83:D100" si="36">A84</f>
+        <f t="shared" ref="C83:D83" si="36">A84</f>
         <v>pmittal115</v>
       </c>
       <c r="D83" t="str">
@@ -2472,7 +2472,7 @@
         <v>36</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ref="C85:D100" si="37">A86</f>
+        <f t="shared" ref="C85:D85" si="37">A86</f>
         <v>shiboo18</v>
       </c>
       <c r="D85" t="str">
@@ -2496,7 +2496,7 @@
         <v>36</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ref="C87:D100" si="38">A88</f>
+        <f t="shared" ref="C87:D87" si="38">A88</f>
         <v>crloflin</v>
       </c>
       <c r="D87" t="str">
@@ -2520,7 +2520,7 @@
         <v>40</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ref="C89:D100" si="39">A90</f>
+        <f t="shared" ref="C89:D89" si="39">A90</f>
         <v>prachitamane</v>
       </c>
       <c r="D89" t="str">
@@ -2544,7 +2544,7 @@
         <v>40</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ref="C91:D100" si="40">A92</f>
+        <f t="shared" ref="C91:D91" si="40">A92</f>
         <v>Christyyy</v>
       </c>
       <c r="D91" t="str">
@@ -2568,7 +2568,7 @@
         <v>40</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ref="C93:D100" si="41">A94</f>
+        <f t="shared" ref="C93:D93" si="41">A94</f>
         <v>tanmayee123</v>
       </c>
       <c r="D93" t="str">
@@ -2592,7 +2592,7 @@
         <v>40</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95:D100" si="42">A96</f>
+        <f t="shared" ref="C95:D95" si="42">A96</f>
         <v>shiboo18</v>
       </c>
       <c r="D95" t="str">
@@ -2616,7 +2616,7 @@
         <v>24</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ref="C97:D100" si="43">A98</f>
+        <f t="shared" ref="C97:D97" si="43">A98</f>
         <v>dengc</v>
       </c>
       <c r="D97" t="str">
@@ -2640,7 +2640,7 @@
         <v>27</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99:D100" si="44">A100</f>
+        <f t="shared" ref="C99:D99" si="44">A100</f>
         <v>tanmayee123</v>
       </c>
       <c r="D99" t="str">

--- a/ironhack/code_clone/OutWit_green4.xlsx
+++ b/ironhack/code_clone/OutWit_green4.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection1!$F$1:$K$50</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="48">
   <si>
     <t>lostkuma</t>
   </si>
@@ -497,8 +497,8 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -561,7 +561,7 @@
         <v>29</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J50" si="0">(2*G2*I2)/(100*G2+100*I2+2*G2*I2)</f>
+        <f>(2*G2*I2)/(100*G2+100*I2+2*G2*I2)</f>
         <v>0.1693679092382496</v>
       </c>
       <c r="K2">
@@ -584,23 +584,23 @@
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>1.7857142857142856E-2</v>
+        <f>(2*G3*I3)/(100*G3+100*I3+2*G3*I3)</f>
+        <v>8.357771260997067E-2</v>
       </c>
       <c r="K3">
-        <v>1.7857142857142856E-2</v>
+        <v>8.357771260997067E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -611,23 +611,23 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
-        <v>9.7788125727590228E-2</v>
+        <f>(2*G4*I4)/(100*G4+100*I4+2*G4*I4)</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="K4">
-        <v>9.7788125727590228E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -646,23 +646,23 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>40</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>1.8538713195201745E-2</v>
+        <f>(2*G5*I5)/(100*G5+100*I5+2*G5*I5)</f>
+        <v>1.7199017199017199E-2</v>
       </c>
       <c r="K5">
-        <v>1.8538713195201745E-2</v>
+        <v>1.7199017199017199E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -676,20 +676,20 @@
         <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>3.1007751937984496E-2</v>
+        <f>(2*G6*I6)/(100*G6+100*I6+2*G6*I6)</f>
+        <v>9.7788125727590228E-2</v>
       </c>
       <c r="K6">
-        <v>3.1007751937984496E-2</v>
+        <v>9.7788125727590228E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -708,23 +708,23 @@
         <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
-        <v>7.3359073359073365E-2</v>
+        <f>(2*G7*I7)/(100*G7+100*I7+2*G7*I7)</f>
+        <v>1.8538713195201745E-2</v>
       </c>
       <c r="K7">
-        <v>7.3359073359073365E-2</v>
+        <v>1.8538713195201745E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -735,23 +735,23 @@
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
-        <v>2.34375E-2</v>
+        <f>(2*G8*I8)/(100*G8+100*I8+2*G8*I8)</f>
+        <v>3.1007751937984496E-2</v>
       </c>
       <c r="K8">
-        <v>2.34375E-2</v>
+        <v>3.1007751937984496E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
@@ -770,23 +770,23 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
-        <v>4.1811846689895474E-2</v>
+        <f>(2*G9*I9)/(100*G9+100*I9+2*G9*I9)</f>
+        <v>5.5415617128463476E-2</v>
       </c>
       <c r="K9">
-        <v>4.1811846689895474E-2</v>
+        <v>5.5415617128463476E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -797,23 +797,23 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>2.9126213592233011E-2</v>
+        <f>(2*G10*I10)/(100*G10+100*I10+2*G10*I10)</f>
+        <v>1.82328190743338E-2</v>
       </c>
       <c r="K10">
-        <v>2.9126213592233011E-2</v>
+        <v>1.82328190743338E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
@@ -832,23 +832,23 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>2.34375E-2</v>
+        <f>(2*G11*I11)/(100*G11+100*I11+2*G11*I11)</f>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="K11">
-        <v>2.34375E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -862,20 +862,20 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
-        <v>9.9009900990099011E-3</v>
+        <f>(2*G12*I12)/(100*G12+100*I12+2*G12*I12)</f>
+        <v>7.3359073359073365E-2</v>
       </c>
       <c r="K12">
-        <v>9.9009900990099011E-3</v>
+        <v>7.3359073359073365E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
@@ -886,31 +886,31 @@
         <v>24</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13:D13" si="1">A14</f>
+        <f t="shared" ref="C13:D13" si="0">A14</f>
         <v>meetalivaidya</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
-        <v>1.5748031496062992E-2</v>
+        <f>(2*G13*I13)/(100*G13+100*I13+2*G13*I13)</f>
+        <v>2.34375E-2</v>
       </c>
       <c r="K13">
-        <v>1.5748031496062992E-2</v>
+        <v>2.34375E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -924,20 +924,20 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
-        <v>1.7199017199017199E-2</v>
+        <f>(2*G14*I14)/(100*G14+100*I14+2*G14*I14)</f>
+        <v>4.1811846689895474E-2</v>
       </c>
       <c r="K14">
-        <v>1.7199017199017199E-2</v>
+        <v>4.1811846689895474E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
@@ -948,31 +948,31 @@
         <v>27</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15:D15" si="2">A16</f>
+        <f t="shared" ref="C15:D15" si="1">A16</f>
         <v>huayifang</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
-        <v>1.6393442622950821E-2</v>
+        <f>(2*G15*I15)/(100*G15+100*I15+2*G15*I15)</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="K15">
-        <v>1.6393442622950821E-2</v>
+        <v>2.9126213592233011E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -983,23 +983,23 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0.46312866399259489</v>
+        <f>(2*G16*I16)/(100*G16+100*I16+2*G16*I16)</f>
+        <v>2.34375E-2</v>
       </c>
       <c r="K16">
-        <v>0.46312866399259489</v>
+        <v>2.34375E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -1010,31 +1010,31 @@
         <v>28</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17:D17" si="3">A18</f>
+        <f t="shared" ref="C17:D17" si="2">A18</f>
         <v>meetalivaidya</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <f>(2*G17*I17)/(100*G17+100*I17+2*G17*I17)</f>
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="K17">
-        <v>0.27083333333333331</v>
+        <v>9.9009900990099011E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -1045,23 +1045,23 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
-        <v>0.12371134020618557</v>
+        <f>(2*G18*I18)/(100*G18+100*I18+2*G18*I18)</f>
+        <v>1.5748031496062992E-2</v>
       </c>
       <c r="K18">
-        <v>0.12371134020618557</v>
+        <v>1.5748031496062992E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -1072,31 +1072,31 @@
         <v>30</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ref="C19:D19" si="4">A20</f>
+        <f t="shared" ref="C19:D19" si="3">A20</f>
         <v>meetalivaidya</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
-        <v>6.4171122994652413E-2</v>
+        <f>(2*G19*I19)/(100*G19+100*I19+2*G19*I19)</f>
+        <v>1.7199017199017199E-2</v>
       </c>
       <c r="K19">
-        <v>6.4171122994652413E-2</v>
+        <v>1.7199017199017199E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -1107,23 +1107,23 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
-        <v>8.357771260997067E-2</v>
+        <f>(2*G20*I20)/(100*G20+100*I20+2*G20*I20)</f>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="K20">
-        <v>8.357771260997067E-2</v>
+        <v>1.6393442622950821E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -1134,31 +1134,31 @@
         <v>31</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:D21" si="5">A22</f>
+        <f t="shared" ref="C21:D21" si="4">A22</f>
         <v>taycurt17</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <f>(2*G21*I21)/(100*G21+100*I21+2*G21*I21)</f>
+        <v>0.12811387900355872</v>
       </c>
       <c r="K21">
-        <v>2.7777777777777776E-2</v>
+        <v>0.12811387900355872</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -1169,23 +1169,23 @@
         <v>32</v>
       </c>
       <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
-        <v>5.5415617128463476E-2</v>
+        <f>(2*G22*I22)/(100*G22+100*I22+2*G22*I22)</f>
+        <v>6.4171122994652413E-2</v>
       </c>
       <c r="K22">
-        <v>5.5415617128463476E-2</v>
+        <v>6.4171122994652413E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -1196,31 +1196,31 @@
         <v>31</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ref="C23:D23" si="6">A24</f>
+        <f t="shared" ref="C23:D23" si="5">A24</f>
         <v>patrickherrod</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
-        <v>2.5974025974025976E-2</v>
+        <f>(2*G23*I23)/(100*G23+100*I23+2*G23*I23)</f>
+        <v>0.46312866399259489</v>
       </c>
       <c r="K23">
-        <v>2.5974025974025976E-2</v>
+        <v>0.46312866399259489</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -1231,23 +1231,23 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
-        <v>5.2478134110787174E-2</v>
+        <f>(2*G24*I24)/(100*G24+100*I24+2*G24*I24)</f>
+        <v>0.46312866399259489</v>
       </c>
       <c r="K24">
-        <v>5.2478134110787174E-2</v>
+        <v>0.46312866399259489</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -1258,31 +1258,31 @@
         <v>17</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:D25" si="7">A26</f>
+        <f t="shared" ref="C25:D25" si="6">A26</f>
         <v>abelal16</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
-        <v>4.8442906574394463E-2</v>
+        <f>(2*G25*I25)/(100*G25+100*I25+2*G25*I25)</f>
+        <v>0.27083333333333331</v>
       </c>
       <c r="K25">
-        <v>4.8442906574394463E-2</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -1293,23 +1293,23 @@
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>1.9607843137254902E-2</v>
+        <f>(2*G26*I26)/(100*G26+100*I26+2*G26*I26)</f>
+        <v>0.1693679092382496</v>
       </c>
       <c r="K26">
-        <v>1.9607843137254902E-2</v>
+        <v>0.1693679092382496</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -1320,31 +1320,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C27:D27" si="8">A28</f>
+        <f t="shared" ref="C27:D27" si="7">A28</f>
         <v>taycurt17</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>1.3157894736842105E-2</v>
+        <f>(2*G27*I27)/(100*G27+100*I27+2*G27*I27)</f>
+        <v>7.3359073359073365E-2</v>
       </c>
       <c r="K27">
-        <v>1.3157894736842105E-2</v>
+        <v>7.3359073359073365E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -1355,23 +1355,23 @@
         <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0.10303587856485741</v>
+        <f>(2*G28*I28)/(100*G28+100*I28+2*G28*I28)</f>
+        <v>0.12371134020618557</v>
       </c>
       <c r="K28">
-        <v>0.10303587856485741</v>
+        <v>0.12371134020618557</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -1382,31 +1382,31 @@
         <v>35</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ref="C29:D29" si="9">A30</f>
+        <f t="shared" ref="C29:D29" si="8">A30</f>
         <v>shiboo18</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>3.5234899328859058E-2</v>
+        <f>(2*G29*I29)/(100*G29+100*I29+2*G29*I29)</f>
+        <v>0.12371134020618557</v>
       </c>
       <c r="K29">
-        <v>3.5234899328859058E-2</v>
+        <v>0.12371134020618557</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -1417,23 +1417,23 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
-        <v>9.9009900990099011E-3</v>
+        <f>(2*G30*I30)/(100*G30+100*I30+2*G30*I30)</f>
+        <v>6.4171122994652413E-2</v>
       </c>
       <c r="K30">
-        <v>9.9009900990099011E-3</v>
+        <v>6.4171122994652413E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -1444,31 +1444,31 @@
         <v>28</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ref="C31:D31" si="10">A32</f>
+        <f t="shared" ref="C31:D31" si="9">A32</f>
         <v>taycurt17</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I31" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
-        <v>5.1724137931034482E-2</v>
+        <f>(2*G31*I31)/(100*G31+100*I31+2*G31*I31)</f>
+        <v>8.357771260997067E-2</v>
       </c>
       <c r="K31">
-        <v>5.1724137931034482E-2</v>
+        <v>8.357771260997067E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -1479,23 +1479,23 @@
         <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
-        <v>1.4778325123152709E-2</v>
+        <f>(2*G32*I32)/(100*G32+100*I32+2*G32*I32)</f>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K32">
-        <v>1.4778325123152709E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -1506,31 +1506,31 @@
         <v>28</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ref="C33:D33" si="11">A34</f>
+        <f t="shared" ref="C33:D33" si="10">A34</f>
         <v>patrickherrod</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
         <v>34</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
-        <v>6.4327485380116955E-2</v>
+        <f>(2*G33*I33)/(100*G33+100*I33+2*G33*I33)</f>
+        <v>5.5415617128463476E-2</v>
       </c>
       <c r="K33">
-        <v>6.4327485380116955E-2</v>
+        <v>5.5415617128463476E-2</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
@@ -1541,23 +1541,23 @@
         <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
-        <v>1.4778325123152709E-2</v>
+        <f>(2*G34*I34)/(100*G34+100*I34+2*G34*I34)</f>
+        <v>2.5974025974025976E-2</v>
       </c>
       <c r="K34">
-        <v>1.4778325123152709E-2</v>
+        <v>2.5974025974025976E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
@@ -1568,31 +1568,31 @@
         <v>35</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:D35" si="12">A36</f>
+        <f t="shared" ref="C35:D35" si="11">A36</f>
         <v>pmittal115</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
-        <v>1.7199017199017199E-2</v>
+        <f>(2*G35*I35)/(100*G35+100*I35+2*G35*I35)</f>
+        <v>5.2478134110787174E-2</v>
       </c>
       <c r="K35">
-        <v>1.7199017199017199E-2</v>
+        <v>5.2478134110787174E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -1603,23 +1603,23 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
-        <v>1.6853932584269662E-2</v>
+        <f>(2*G36*I36)/(100*G36+100*I36+2*G36*I36)</f>
+        <v>4.8442906574394463E-2</v>
       </c>
       <c r="K36">
-        <v>1.6853932584269662E-2</v>
+        <v>4.8442906574394463E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
@@ -1630,31 +1630,31 @@
         <v>36</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ref="C37:D37" si="13">A38</f>
+        <f t="shared" ref="C37:D37" si="12">A38</f>
         <v>prachitamane</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
-        <v>3.614457831325301E-2</v>
+        <f>(2*G37*I37)/(100*G37+100*I37+2*G37*I37)</f>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="K37">
-        <v>3.614457831325301E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
@@ -1665,23 +1665,23 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
-        <v>4.5801526717557252E-2</v>
+        <f>(2*G38*I38)/(100*G38+100*I38+2*G38*I38)</f>
+        <v>1.3157894736842105E-2</v>
       </c>
       <c r="K38">
-        <v>4.5801526717557252E-2</v>
+        <v>1.3157894736842105E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -1692,31 +1692,31 @@
         <v>31</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:D39" si="14">A40</f>
+        <f t="shared" ref="C39:D39" si="13">A40</f>
         <v>sauravn</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
-        <v>5.5415617128463476E-2</v>
+        <f>(2*G39*I39)/(100*G39+100*I39+2*G39*I39)</f>
+        <v>0.10303587856485741</v>
       </c>
       <c r="K39">
-        <v>5.5415617128463476E-2</v>
+        <v>0.10303587856485741</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -1727,23 +1727,23 @@
         <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(2*G40*I40)/(100*G40+100*I40+2*G40*I40)</f>
+        <v>3.5234899328859058E-2</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3.5234899328859058E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
@@ -1754,31 +1754,31 @@
         <v>36</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" ref="C41:D41" si="15">A42</f>
+        <f t="shared" ref="C41:D41" si="14">A42</f>
         <v>sauravn</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
-        <v>9.5744680851063829E-2</v>
+        <f>(2*G41*I41)/(100*G41+100*I41+2*G41*I41)</f>
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="K41">
-        <v>9.5744680851063829E-2</v>
+        <v>9.9009900990099011E-3</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -1789,23 +1789,23 @@
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
-        <v>4.708520179372197E-2</v>
+        <f>(2*G42*I42)/(100*G42+100*I42+2*G42*I42)</f>
+        <v>1.8538713195201745E-2</v>
       </c>
       <c r="K42">
-        <v>4.708520179372197E-2</v>
+        <v>1.8538713195201745E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -1816,31 +1816,31 @@
         <v>36</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" ref="C43:D43" si="16">A44</f>
+        <f t="shared" ref="C43:D43" si="15">A44</f>
         <v>taycurt17</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
-        <v>2.9126213592233011E-2</v>
+        <f>(2*G43*I43)/(100*G43+100*I43+2*G43*I43)</f>
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="K43">
-        <v>2.9126213592233011E-2</v>
+        <v>9.9009900990099011E-3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
@@ -1851,23 +1851,23 @@
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
       </c>
       <c r="H44" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
-        <v>2.5974025974025976E-2</v>
+        <f>(2*G44*I44)/(100*G44+100*I44+2*G44*I44)</f>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K44">
-        <v>2.5974025974025976E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
@@ -1878,31 +1878,31 @@
         <v>31</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" ref="C45:D45" si="17">A46</f>
+        <f t="shared" ref="C45:D45" si="16">A46</f>
         <v>taycurt17</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
-        <v>3.017241379310345E-2</v>
+        <f>(2*G45*I45)/(100*G45+100*I45+2*G45*I45)</f>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>3.017241379310345E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -1913,23 +1913,23 @@
         <v>27</v>
       </c>
       <c r="F46" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
         <v>16</v>
       </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s">
-        <v>33</v>
-      </c>
       <c r="I46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
-        <v>1.5748031496062992E-2</v>
+        <f>(2*G46*I46)/(100*G46+100*I46+2*G46*I46)</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="K46">
-        <v>1.5748031496062992E-2</v>
+        <v>2.9126213592233011E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
@@ -1940,31 +1940,31 @@
         <v>35</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" ref="C47:D47" si="18">A48</f>
+        <f t="shared" ref="C47:D47" si="17">A48</f>
         <v>pjt90</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
-        <v>1.82328190743338E-2</v>
+        <f>(2*G47*I47)/(100*G47+100*I47+2*G47*I47)</f>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="K47">
-        <v>1.82328190743338E-2</v>
+        <v>5.1724137931034482E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -1975,23 +1975,23 @@
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f>(2*G48*I48)/(100*G48+100*I48+2*G48*I48)</f>
+        <v>1.4778325123152709E-2</v>
       </c>
       <c r="K48">
-        <v>6.25E-2</v>
+        <v>1.4778325123152709E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -2002,31 +2002,31 @@
         <v>36</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" ref="C49:D49" si="19">A50</f>
+        <f t="shared" ref="C49:D49" si="18">A50</f>
         <v>pjt90</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
-        <v>9.0081892629663332E-2</v>
+        <f>(2*G49*I49)/(100*G49+100*I49+2*G49*I49)</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="K49">
-        <v>9.0081892629663332E-2</v>
+        <v>2.9126213592233011E-2</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -2037,23 +2037,23 @@
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
-        <v>0.25664608794254756</v>
+        <f>(2*G50*I50)/(100*G50+100*I50+2*G50*I50)</f>
+        <v>4.8442906574394463E-2</v>
       </c>
       <c r="K50">
-        <v>0.25664608794254756</v>
+        <v>4.8442906574394463E-2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -2064,12 +2064,31 @@
         <v>35</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" ref="C51:D51" si="20">A52</f>
+        <f t="shared" ref="C51:D51" si="19">A52</f>
         <v>pjt90</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51">
+        <f>(2*G51*I51)/(100*G51+100*I51+2*G51*I51)</f>
+        <v>3.017241379310345E-2</v>
+      </c>
+      <c r="K51">
+        <v>3.017241379310345E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -2079,6 +2098,25 @@
       <c r="B52" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52">
+        <f>(2*G52*I52)/(100*G52+100*I52+2*G52*I52)</f>
+        <v>6.4327485380116955E-2</v>
+      </c>
+      <c r="K52">
+        <v>6.4327485380116955E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
@@ -2088,12 +2126,31 @@
         <v>35</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" ref="C53:D53" si="21">A54</f>
+        <f t="shared" ref="C53:D53" si="20">A54</f>
         <v>pmittal115</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53">
+        <f>(2*G53*I53)/(100*G53+100*I53+2*G53*I53)</f>
+        <v>1.4778325123152709E-2</v>
+      </c>
+      <c r="K53">
+        <v>1.4778325123152709E-2</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -2103,6 +2160,25 @@
       <c r="B54" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <f>(2*G54*I54)/(100*G54+100*I54+2*G54*I54)</f>
+        <v>1.7199017199017199E-2</v>
+      </c>
+      <c r="K54">
+        <v>1.7199017199017199E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
@@ -2112,12 +2188,31 @@
         <v>26</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" ref="C55:D55" si="22">A56</f>
+        <f t="shared" ref="C55:D55" si="21">A56</f>
         <v>taycurt17</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55">
+        <f>(2*G55*I55)/(100*G55+100*I55+2*G55*I55)</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="K55">
+        <v>2.34375E-2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
@@ -2127,6 +2222,25 @@
       <c r="B56" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f>(2*G56*I56)/(100*G56+100*I56+2*G56*I56)</f>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="K56">
+        <v>0.27083333333333331</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
@@ -2136,12 +2250,31 @@
         <v>28</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" ref="C57:D57" si="23">A58</f>
+        <f t="shared" ref="C57:D57" si="22">A58</f>
         <v>taycurt17</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57">
+        <f>(2*G57*I57)/(100*G57+100*I57+2*G57*I57)</f>
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K57">
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -2151,6 +2284,25 @@
       <c r="B58" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58">
+        <f>(2*G58*I58)/(100*G58+100*I58+2*G58*I58)</f>
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="K58">
+        <v>9.9009900990099011E-3</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
@@ -2160,12 +2312,31 @@
         <v>40</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" ref="C59:D59" si="24">A60</f>
+        <f t="shared" ref="C59:D59" si="23">A60</f>
         <v>tanmayee123</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59">
+        <f>(2*G59*I59)/(100*G59+100*I59+2*G59*I59)</f>
+        <v>1.4778325123152709E-2</v>
+      </c>
+      <c r="K59">
+        <v>1.4778325123152709E-2</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -2175,6 +2346,25 @@
       <c r="B60" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="F60" t="s">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60">
+        <f>(2*G60*I60)/(100*G60+100*I60+2*G60*I60)</f>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="K60">
+        <v>2.5974025974025976E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
@@ -2184,12 +2374,31 @@
         <v>35</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" ref="C61:D61" si="25">A62</f>
+        <f t="shared" ref="C61:D61" si="24">A62</f>
         <v>pmittal115</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61">
+        <f>(2*G61*I61)/(100*G61+100*I61+2*G61*I61)</f>
+        <v>1.6853932584269662E-2</v>
+      </c>
+      <c r="K61">
+        <v>1.6853932584269662E-2</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -2199,6 +2408,25 @@
       <c r="B62" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62">
+        <f>(2*G62*I62)/(100*G62+100*I62+2*G62*I62)</f>
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="K62">
+        <v>3.614457831325301E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
@@ -2208,12 +2436,31 @@
         <v>24</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" ref="C63:D63" si="26">A64</f>
+        <f t="shared" ref="C63:D63" si="25">A64</f>
         <v>taycurt17</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63">
+        <f>(2*G63*I63)/(100*G63+100*I63+2*G63*I63)</f>
+        <v>4.5801526717557252E-2</v>
+      </c>
+      <c r="K63">
+        <v>4.5801526717557252E-2</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -2223,8 +2470,27 @@
       <c r="B64" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64">
+        <f>(2*G64*I64)/(100*G64+100*I64+2*G64*I64)</f>
+        <v>5.5415617128463476E-2</v>
+      </c>
+      <c r="K64">
+        <v>5.5415617128463476E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>39</v>
       </c>
@@ -2232,71 +2498,185 @@
         <v>41</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ref="C65:D65" si="27">A66</f>
+        <f t="shared" ref="C65:D65" si="26">A66</f>
         <v>patrickherrod</v>
       </c>
       <c r="D65" t="str">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65">
+        <f>(2*G65*I65)/(100*G65+100*I65+2*G65*I65)</f>
+        <v>1.5748031496062992E-2</v>
+      </c>
+      <c r="K65">
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>36</v>
+      </c>
+      <c r="J66">
+        <f>(2*G66*I66)/(100*G66+100*I66+2*G66*I66)</f>
+        <v>5.5415617128463476E-2</v>
+      </c>
+      <c r="K66">
+        <v>5.5415617128463476E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:D67" si="27">A68</f>
+        <v>sauravn</v>
+      </c>
+      <c r="D67" t="str">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="1" t="s">
+      <c r="I67" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67">
+        <f>(2*G67*I67)/(100*G67+100*I67+2*G67*I67)</f>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
         <v>17</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:D67" si="28">A68</f>
-        <v>sauravn</v>
-      </c>
-      <c r="D67" t="str">
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68">
+        <f>(2*G68*I68)/(100*G68+100*I68+2*G68*I68)</f>
+        <v>9.5744680851063829E-2</v>
+      </c>
+      <c r="K68">
+        <v>9.5744680851063829E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" ref="C69:D69" si="28">A70</f>
+        <v>patrickherrod</v>
+      </c>
+      <c r="D69" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="1" t="s">
+      <c r="F69" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" ref="C69:D69" si="29">A70</f>
-        <v>patrickherrod</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69">
+        <f>(2*G69*I69)/(100*G69+100*I69+2*G69*I69)</f>
+        <v>4.708520179372197E-2</v>
+      </c>
+      <c r="K69">
+        <v>4.708520179372197E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70">
+        <f>(2*G70*I70)/(100*G70+100*I70+2*G70*I70)</f>
+        <v>2.9126213592233011E-2</v>
+      </c>
+      <c r="K70">
+        <v>2.9126213592233011E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>37</v>
       </c>
@@ -2304,23 +2684,61 @@
         <v>28</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" ref="C71:D71" si="30">A72</f>
+        <f t="shared" ref="C71:D71" si="29">A72</f>
         <v>tanmayee123</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>36</v>
+      </c>
+      <c r="J71">
+        <f>(2*G71*I71)/(100*G71+100*I71+2*G71*I71)</f>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="K71">
+        <v>2.5974025974025976E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <f>(2*G72*I72)/(100*G72+100*I72+2*G72*I72)</f>
+        <v>3.017241379310345E-2</v>
+      </c>
+      <c r="K72">
+        <v>3.017241379310345E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -2328,23 +2746,61 @@
         <v>40</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" ref="C73:D73" si="31">A74</f>
+        <f t="shared" ref="C73:D73" si="30">A74</f>
         <v>pmittal115</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73">
+        <f>(2*G73*I73)/(100*G73+100*I73+2*G73*I73)</f>
+        <v>1.5748031496062992E-2</v>
+      </c>
+      <c r="K73">
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74">
+        <f>(2*G74*I74)/(100*G74+100*I74+2*G74*I74)</f>
+        <v>1.82328190743338E-2</v>
+      </c>
+      <c r="K74">
+        <v>1.82328190743338E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -2352,23 +2808,61 @@
         <v>40</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" ref="C75:D75" si="32">A76</f>
+        <f t="shared" ref="C75:D75" si="31">A76</f>
         <v>crloflin</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75">
+        <f>(2*G75*I75)/(100*G75+100*I75+2*G75*I75)</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="K75">
+        <v>2.34375E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>36</v>
+      </c>
+      <c r="J76">
+        <f>(2*G76*I76)/(100*G76+100*I76+2*G76*I76)</f>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="K76">
+        <v>2.5974025974025976E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -2376,23 +2870,61 @@
         <v>40</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" ref="C77:D77" si="33">A78</f>
+        <f t="shared" ref="C77:D77" si="32">A78</f>
         <v>tanmayee123</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <f>(2*G77*I77)/(100*G77+100*I77+2*G77*I77)</f>
+        <v>1.6853932584269662E-2</v>
+      </c>
+      <c r="K77">
+        <v>1.6853932584269662E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78">
+        <f>(2*G78*I78)/(100*G78+100*I78+2*G78*I78)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K78">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
@@ -2400,23 +2932,61 @@
         <v>40</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ref="C79:D79" si="34">A80</f>
+        <f t="shared" ref="C79:D79" si="33">A80</f>
         <v>shiboo18</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79">
+        <f>(2*G79*I79)/(100*G79+100*I79+2*G79*I79)</f>
+        <v>1.6393442622950821E-2</v>
+      </c>
+      <c r="K79">
+        <v>1.6393442622950821E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80">
+        <f>(2*G80*I80)/(100*G80+100*I80+2*G80*I80)</f>
+        <v>3.5234899328859058E-2</v>
+      </c>
+      <c r="K80">
+        <v>3.5234899328859058E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>43</v>
       </c>
@@ -2424,23 +2994,61 @@
         <v>34</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ref="C81:D81" si="35">A82</f>
+        <f t="shared" ref="C81:D81" si="34">A82</f>
         <v>patrickherrod</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" t="s">
+        <v>2</v>
+      </c>
+      <c r="I81" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81">
+        <f>(2*G81*I81)/(100*G81+100*I81+2*G81*I81)</f>
+        <v>1.7199017199017199E-2</v>
+      </c>
+      <c r="K81">
+        <v>1.7199017199017199E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s">
+        <v>36</v>
+      </c>
+      <c r="J82">
+        <f>(2*G82*I82)/(100*G82+100*I82+2*G82*I82)</f>
+        <v>4.5801526717557252E-2</v>
+      </c>
+      <c r="K82">
+        <v>4.5801526717557252E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,23 +3056,61 @@
         <v>31</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" ref="C83:D83" si="36">A84</f>
+        <f t="shared" ref="C83:D83" si="35">A84</f>
         <v>pmittal115</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83">
+        <f>(2*G83*I83)/(100*G83+100*I83+2*G83*I83)</f>
+        <v>9.5744680851063829E-2</v>
+      </c>
+      <c r="K83">
+        <v>9.5744680851063829E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84">
+        <f>(2*G84*I84)/(100*G84+100*I84+2*G84*I84)</f>
+        <v>9.0081892629663332E-2</v>
+      </c>
+      <c r="K84">
+        <v>9.0081892629663332E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -2472,23 +3118,61 @@
         <v>36</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" ref="C85:D85" si="37">A86</f>
+        <f t="shared" ref="C85:D85" si="36">A86</f>
         <v>shiboo18</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J85">
+        <f>(2*G85*I85)/(100*G85+100*I85+2*G85*I85)</f>
+        <v>3.1007751937984496E-2</v>
+      </c>
+      <c r="K85">
+        <v>3.1007751937984496E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86">
+        <f>(2*G86*I86)/(100*G86+100*I86+2*G86*I86)</f>
+        <v>1.3157894736842105E-2</v>
+      </c>
+      <c r="K86">
+        <v>1.3157894736842105E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>37</v>
       </c>
@@ -2496,23 +3180,61 @@
         <v>36</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" ref="C87:D87" si="38">A88</f>
+        <f t="shared" ref="C87:D87" si="37">A88</f>
         <v>crloflin</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
+        <v>2</v>
+      </c>
+      <c r="I87" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87">
+        <f>(2*G87*I87)/(100*G87+100*I87+2*G87*I87)</f>
+        <v>1.4778325123152709E-2</v>
+      </c>
+      <c r="K87">
+        <v>1.4778325123152709E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88">
+        <f>(2*G88*I88)/(100*G88+100*I88+2*G88*I88)</f>
+        <v>3.614457831325301E-2</v>
+      </c>
+      <c r="K88">
+        <v>3.614457831325301E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -2520,23 +3242,61 @@
         <v>40</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" ref="C89:D89" si="39">A90</f>
+        <f t="shared" ref="C89:D89" si="38">A90</f>
         <v>prachitamane</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89">
+        <f>(2*G89*I89)/(100*G89+100*I89+2*G89*I89)</f>
+        <v>1.5748031496062992E-2</v>
+      </c>
+      <c r="K89">
+        <v>1.5748031496062992E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90">
+        <f>(2*G90*I90)/(100*G90+100*I90+2*G90*I90)</f>
+        <v>9.7788125727590228E-2</v>
+      </c>
+      <c r="K90">
+        <v>9.7788125727590228E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -2544,23 +3304,61 @@
         <v>40</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" ref="C91:D91" si="40">A92</f>
+        <f t="shared" ref="C91:D91" si="39">A92</f>
         <v>Christyyy</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91">
+        <f>(2*G91*I91)/(100*G91+100*I91+2*G91*I91)</f>
+        <v>4.1811846689895474E-2</v>
+      </c>
+      <c r="K91">
+        <v>4.1811846689895474E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" t="s">
+        <v>36</v>
+      </c>
+      <c r="J92">
+        <f>(2*G92*I92)/(100*G92+100*I92+2*G92*I92)</f>
+        <v>5.2478134110787174E-2</v>
+      </c>
+      <c r="K92">
+        <v>5.2478134110787174E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>23</v>
       </c>
@@ -2568,23 +3366,61 @@
         <v>40</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" ref="C93:D93" si="41">A94</f>
+        <f t="shared" ref="C93:D93" si="40">A94</f>
         <v>tanmayee123</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <f>(2*G93*I93)/(100*G93+100*I93+2*G93*I93)</f>
+        <v>0.10303587856485741</v>
+      </c>
+      <c r="K93">
+        <v>0.10303587856485741</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s">
+        <v>28</v>
+      </c>
+      <c r="J94">
+        <f>(2*G94*I94)/(100*G94+100*I94+2*G94*I94)</f>
+        <v>5.1724137931034482E-2</v>
+      </c>
+      <c r="K94">
+        <v>5.1724137931034482E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -2592,23 +3428,61 @@
         <v>40</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95:D95" si="42">A96</f>
+        <f t="shared" ref="C95:D95" si="41">A96</f>
         <v>shiboo18</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95">
+        <f>(2*G95*I95)/(100*G95+100*I95+2*G95*I95)</f>
+        <v>6.4327485380116955E-2</v>
+      </c>
+      <c r="K95">
+        <v>6.4327485380116955E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96">
+        <f>(2*G96*I96)/(100*G96+100*I96+2*G96*I96)</f>
+        <v>4.708520179372197E-2</v>
+      </c>
+      <c r="K96">
+        <v>4.708520179372197E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
@@ -2616,23 +3490,61 @@
         <v>24</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" ref="C97:D97" si="43">A98</f>
+        <f t="shared" ref="C97:D97" si="42">A98</f>
         <v>dengc</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>24</v>
+      </c>
+      <c r="J97">
+        <f>(2*G97*I97)/(100*G97+100*I97+2*G97*I97)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K97">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98">
+        <f>(2*G98*I98)/(100*G98+100*I98+2*G98*I98)</f>
+        <v>9.0081892629663332E-2</v>
+      </c>
+      <c r="K98">
+        <v>9.0081892629663332E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -2640,25 +3552,63 @@
         <v>27</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99:D99" si="44">A100</f>
+        <f t="shared" ref="C99:D99" si="43">A100</f>
         <v>tanmayee123</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99">
+        <f>(2*G99*I99)/(100*G99+100*I99+2*G99*I99)</f>
+        <v>0.25664608794254756</v>
+      </c>
+      <c r="K99">
+        <v>0.25664608794254756</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100">
+        <f>(2*G100*I100)/(100*G100+100*I100+2*G100*I100)</f>
+        <v>0.25664608794254756</v>
+      </c>
+      <c r="K100">
+        <v>0.25664608794254756</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="F1:K50"/>
-  <sortState ref="F1:I50">
+  <sortState ref="F1:K100">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
